--- a/Code/Results/Cases/Case_0_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>9.119816802688705</v>
+        <v>5.911987446456305</v>
       </c>
       <c r="D2">
-        <v>10.26155381983567</v>
+        <v>11.39208510656983</v>
       </c>
       <c r="E2">
-        <v>8.579474190337965</v>
+        <v>8.76604078345289</v>
       </c>
       <c r="F2">
-        <v>69.81278082028702</v>
+        <v>57.72565733924125</v>
       </c>
       <c r="G2">
-        <v>1.932008453986754</v>
+        <v>3.755683001120029</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>51.1796743661411</v>
+        <v>46.60782760093369</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>5.053484912710031</v>
+        <v>8.007255930706178</v>
       </c>
       <c r="M2">
-        <v>47.24376076459551</v>
+        <v>36.13320484868541</v>
       </c>
       <c r="N2">
-        <v>15.99038605713191</v>
+        <v>16.98307495717732</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>8.430450058523045</v>
+        <v>5.671382409986819</v>
       </c>
       <c r="D3">
-        <v>9.587310793018631</v>
+        <v>11.36985823385049</v>
       </c>
       <c r="E3">
-        <v>8.17841860625348</v>
+        <v>8.666929438712158</v>
       </c>
       <c r="F3">
-        <v>64.11478734916967</v>
+        <v>56.93511831928879</v>
       </c>
       <c r="G3">
-        <v>1.96812889446662</v>
+        <v>3.765073379102368</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>47.15242351027727</v>
+        <v>46.18505825166956</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>5.044045258007816</v>
+        <v>8.015388637497136</v>
       </c>
       <c r="M3">
-        <v>43.56117495382097</v>
+        <v>35.27062507874101</v>
       </c>
       <c r="N3">
-        <v>15.55801492653874</v>
+        <v>16.86861584555926</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>8.00368963259638</v>
+        <v>5.517687811008257</v>
       </c>
       <c r="D4">
-        <v>9.197608715658632</v>
+        <v>11.36091050373927</v>
       </c>
       <c r="E4">
-        <v>7.931728081362878</v>
+        <v>8.605210685346936</v>
       </c>
       <c r="F4">
-        <v>60.8311327116615</v>
+        <v>56.471822062941</v>
       </c>
       <c r="G4">
-        <v>1.989690040493735</v>
+        <v>3.771104149998658</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>44.89178221976873</v>
+        <v>45.94459211584066</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>5.039609913382315</v>
+        <v>8.020960620617643</v>
       </c>
       <c r="M4">
-        <v>41.24477420638292</v>
+        <v>34.73886209376798</v>
       </c>
       <c r="N4">
-        <v>15.29040934276985</v>
+        <v>16.80050501527966</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>7.828163454674672</v>
+        <v>5.453600773689383</v>
       </c>
       <c r="D5">
-        <v>9.043922642211179</v>
+        <v>11.35843347574352</v>
       </c>
       <c r="E5">
-        <v>7.830800959705302</v>
+        <v>8.579854244623565</v>
       </c>
       <c r="F5">
-        <v>59.5096933880521</v>
+        <v>56.2887479125942</v>
       </c>
       <c r="G5">
-        <v>1.998384355355665</v>
+        <v>3.77362889143155</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>43.98215662507414</v>
+        <v>45.8514480767581</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>5.038121972340299</v>
+        <v>8.023377018532434</v>
       </c>
       <c r="M5">
-        <v>40.28392654299492</v>
+        <v>34.5219250703665</v>
       </c>
       <c r="N5">
-        <v>15.18100244603835</v>
+        <v>16.77331951280883</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>7.798902036451445</v>
+        <v>5.442872689386066</v>
       </c>
       <c r="D6">
-        <v>9.018689480755961</v>
+        <v>11.35809239622755</v>
       </c>
       <c r="E6">
-        <v>7.814011673735691</v>
+        <v>8.57563175696805</v>
       </c>
       <c r="F6">
-        <v>59.2907080186491</v>
+        <v>56.25869876431394</v>
       </c>
       <c r="G6">
-        <v>1.999824022771375</v>
+        <v>3.774052193440983</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>43.83172150992544</v>
+        <v>45.83627534517071</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>5.037893664577528</v>
+        <v>8.023787072657672</v>
       </c>
       <c r="M6">
-        <v>40.12328536209967</v>
+        <v>34.48589728821162</v>
       </c>
       <c r="N6">
-        <v>15.16281920266801</v>
+        <v>16.76884054273886</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>8.001329800958423</v>
+        <v>5.516829340201617</v>
       </c>
       <c r="D7">
-        <v>9.195516392207342</v>
+        <v>11.36087238088512</v>
       </c>
       <c r="E7">
-        <v>7.930368856483155</v>
+        <v>8.60486953622326</v>
       </c>
       <c r="F7">
-        <v>60.81327931542067</v>
+        <v>56.46932968192272</v>
       </c>
       <c r="G7">
-        <v>1.989807596162736</v>
+        <v>3.771137926974677</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>44.87947210177418</v>
+        <v>45.94331626839198</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>5.039588577703225</v>
+        <v>8.020992618378603</v>
       </c>
       <c r="M7">
-        <v>41.23188766661136</v>
+        <v>34.735936973183</v>
       </c>
       <c r="N7">
-        <v>15.28893504888588</v>
+        <v>16.80013604053955</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>8.882324129030165</v>
+        <v>5.830288691768554</v>
       </c>
       <c r="D8">
-        <v>10.02332611060556</v>
+        <v>11.3834387118509</v>
       </c>
       <c r="E8">
-        <v>8.441068142238883</v>
+        <v>8.732053483420552</v>
       </c>
       <c r="F8">
-        <v>67.8353210091889</v>
+        <v>57.44859759114876</v>
       </c>
       <c r="G8">
-        <v>1.944634740890086</v>
+        <v>3.758866101753325</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>49.72013981996232</v>
+        <v>46.45811733660151</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>5.049931489928738</v>
+        <v>8.009940213373682</v>
       </c>
       <c r="M8">
-        <v>45.9833865930412</v>
+        <v>35.83640581397105</v>
       </c>
       <c r="N8">
-        <v>15.84185657790859</v>
+        <v>16.94317487982781</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.63395442342141</v>
+        <v>6.396059729629362</v>
       </c>
       <c r="D9">
-        <v>12.01640024104254</v>
+        <v>11.46548131503017</v>
       </c>
       <c r="E9">
-        <v>9.461615303945385</v>
+        <v>8.974103717460993</v>
       </c>
       <c r="F9">
-        <v>82.71934537540756</v>
+        <v>59.53625569461074</v>
       </c>
       <c r="G9">
-        <v>1.846890433977425</v>
+        <v>3.736880718529984</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>60.72359086479406</v>
+        <v>47.61697878009698</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>5.082694331721059</v>
+        <v>7.992842811848853</v>
       </c>
       <c r="M9">
-        <v>55.06636768015188</v>
+        <v>37.96500171661049</v>
       </c>
       <c r="N9">
-        <v>16.90039496291335</v>
+        <v>17.23973913248815</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>12.07061520151561</v>
+        <v>6.780147294445873</v>
       </c>
       <c r="D10">
-        <v>14.00829921701607</v>
+        <v>11.54939348989755</v>
       </c>
       <c r="E10">
-        <v>10.28733588811703</v>
+        <v>9.14680268116645</v>
       </c>
       <c r="F10">
-        <v>95.32334230045716</v>
+        <v>61.16053136378863</v>
       </c>
       <c r="G10">
-        <v>1.758627966564521</v>
+        <v>3.721962763485435</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>70.07064262315424</v>
+        <v>48.5556157812849</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>5.119317547863836</v>
+        <v>7.983053025115115</v>
       </c>
       <c r="M10">
-        <v>62.11837639990424</v>
+        <v>39.49525087564956</v>
       </c>
       <c r="N10">
-        <v>17.64542594697359</v>
+        <v>17.46586996553227</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>12.83684817934471</v>
+        <v>6.947748225615999</v>
       </c>
       <c r="D11">
-        <v>15.10288514197925</v>
+        <v>11.59279928626071</v>
       </c>
       <c r="E11">
-        <v>10.71989137646966</v>
+        <v>9.224120770289465</v>
       </c>
       <c r="F11">
-        <v>102.129750982875</v>
+        <v>61.91649397761852</v>
       </c>
       <c r="G11">
-        <v>1.708606954016774</v>
+        <v>3.715437003736395</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>75.12832028905653</v>
+        <v>49.00056959116281</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>5.142087323430002</v>
+        <v>7.979197309628323</v>
       </c>
       <c r="M11">
-        <v>65.7122584241292</v>
+        <v>40.1811013516983</v>
       </c>
       <c r="N11">
-        <v>17.96870831503449</v>
+        <v>17.57019663390583</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>13.16261318062709</v>
+        <v>7.010172766985795</v>
       </c>
       <c r="D12">
-        <v>15.5740719583185</v>
+        <v>11.60999446280219</v>
       </c>
       <c r="E12">
-        <v>10.90192661406186</v>
+        <v>9.253209538016552</v>
       </c>
       <c r="F12">
-        <v>105.0313898041592</v>
+        <v>62.20498841023464</v>
       </c>
       <c r="G12">
-        <v>1.686744385907798</v>
+        <v>3.713002732781433</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>77.28650637886639</v>
+        <v>49.1715504741078</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>5.152499794533045</v>
+        <v>7.977822865460185</v>
       </c>
       <c r="M12">
-        <v>67.20122522281665</v>
+        <v>40.43911242167114</v>
       </c>
       <c r="N12">
-        <v>18.08678708654308</v>
+        <v>17.6098836085485</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>13.0902212694962</v>
+        <v>6.996775130422186</v>
       </c>
       <c r="D13">
-        <v>15.4690877744301</v>
+        <v>11.60625736925742</v>
       </c>
       <c r="E13">
-        <v>10.86157144200888</v>
+        <v>9.246953370197446</v>
       </c>
       <c r="F13">
-        <v>104.3864135923757</v>
+        <v>62.14276049937316</v>
       </c>
       <c r="G13">
-        <v>1.691632594507442</v>
+        <v>3.713525364915007</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>76.80668077819765</v>
+        <v>49.13461768479871</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>5.150145475042767</v>
+        <v>7.978115073230311</v>
       </c>
       <c r="M13">
-        <v>66.87244436583636</v>
+        <v>40.38362443218932</v>
       </c>
       <c r="N13">
-        <v>18.06162180323529</v>
+        <v>17.60132873232378</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>12.86272038130047</v>
+        <v>6.952904909790962</v>
       </c>
       <c r="D14">
-        <v>15.14018739896429</v>
+        <v>11.59419871734363</v>
       </c>
       <c r="E14">
-        <v>10.73438964548227</v>
+        <v>9.226517788952924</v>
       </c>
       <c r="F14">
-        <v>102.3601031295887</v>
+        <v>61.94018523874541</v>
       </c>
       <c r="G14">
-        <v>1.706883364985367</v>
+        <v>3.715235998703368</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>75.29960787048873</v>
+        <v>49.01458702919322</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>5.14289748772947</v>
+        <v>7.979082518938927</v>
       </c>
       <c r="M14">
-        <v>65.83139107549346</v>
+        <v>40.20236350807328</v>
       </c>
       <c r="N14">
-        <v>17.9785334995278</v>
+        <v>17.5734582492869</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>12.72903797016276</v>
+        <v>6.925896921771622</v>
       </c>
       <c r="D15">
-        <v>14.94767539314692</v>
+        <v>11.58691135093864</v>
       </c>
       <c r="E15">
-        <v>10.65940039964968</v>
+        <v>9.213975350622432</v>
       </c>
       <c r="F15">
-        <v>101.1701254720857</v>
+        <v>61.81638543501438</v>
       </c>
       <c r="G15">
-        <v>1.715765240972885</v>
+        <v>3.716288598800774</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>74.41483475016562</v>
+        <v>48.94138565098317</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>5.138741519564803</v>
+        <v>7.979686249606043</v>
       </c>
       <c r="M15">
-        <v>65.21422683003784</v>
+        <v>40.09110734906683</v>
       </c>
       <c r="N15">
-        <v>17.92696062790555</v>
+        <v>17.55640944891586</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>12.02397215427603</v>
+        <v>6.769049225163744</v>
       </c>
       <c r="D16">
-        <v>13.94233942026183</v>
+        <v>11.54666265654571</v>
       </c>
       <c r="E16">
-        <v>10.26081152467066</v>
+        <v>9.141723781364821</v>
       </c>
       <c r="F16">
-        <v>94.91036428709934</v>
+        <v>61.1114515407096</v>
       </c>
       <c r="G16">
-        <v>1.761607777546629</v>
+        <v>3.722394430903116</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>69.76398986924733</v>
+        <v>48.52689033974802</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>5.118005106163849</v>
+        <v>7.983317005517647</v>
       </c>
       <c r="M16">
-        <v>61.89564527338861</v>
+        <v>39.45020231615658</v>
       </c>
       <c r="N16">
-        <v>17.62386050877046</v>
+        <v>17.45907884317127</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>11.62825069099403</v>
+        <v>6.670989935895243</v>
       </c>
       <c r="D17">
-        <v>13.38605528984743</v>
+        <v>11.52331638382888</v>
       </c>
       <c r="E17">
-        <v>10.03493894761106</v>
+        <v>9.09707326307614</v>
       </c>
       <c r="F17">
-        <v>91.41515081240198</v>
+        <v>60.68320838529145</v>
       </c>
       <c r="G17">
-        <v>1.786582415808893</v>
+        <v>3.726206480579688</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>67.16969079618229</v>
+        <v>48.27714478079798</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>5.107200502530663</v>
+        <v>7.985697219143288</v>
       </c>
       <c r="M17">
-        <v>59.98856909945758</v>
+        <v>39.05422920447746</v>
       </c>
       <c r="N17">
-        <v>17.4330759150476</v>
+        <v>17.3997226168695</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>11.40962003871999</v>
+        <v>6.613919257178713</v>
       </c>
       <c r="D18">
-        <v>13.08135007496099</v>
+        <v>11.51038059262258</v>
       </c>
       <c r="E18">
-        <v>9.909536058604097</v>
+        <v>9.071275057871235</v>
       </c>
       <c r="F18">
-        <v>89.4915063251663</v>
+        <v>60.43851478506355</v>
       </c>
       <c r="G18">
-        <v>1.800144093754505</v>
+        <v>3.72842362408306</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>65.74268081153063</v>
+        <v>48.13519469472594</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>5.101484292681064</v>
+        <v>7.987122533469757</v>
       </c>
       <c r="M18">
-        <v>58.92190446098331</v>
+        <v>38.82552206185348</v>
       </c>
       <c r="N18">
-        <v>17.32204396956563</v>
+        <v>17.36572151819152</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>11.33684408591059</v>
+        <v>6.594481720180075</v>
       </c>
       <c r="D19">
-        <v>12.98035177593139</v>
+        <v>11.50608512344093</v>
       </c>
       <c r="E19">
-        <v>9.867702515572569</v>
+        <v>9.062520580340456</v>
       </c>
       <c r="F19">
-        <v>88.85249023691088</v>
+        <v>60.35595098090688</v>
       </c>
       <c r="G19">
-        <v>1.804620864419008</v>
+        <v>3.729178544892463</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>65.26876983212108</v>
+        <v>48.08742713841973</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>5.099621760849509</v>
+        <v>7.987614795889887</v>
       </c>
       <c r="M19">
-        <v>58.56483638030935</v>
+        <v>38.74792920622686</v>
       </c>
       <c r="N19">
-        <v>17.2842582762685</v>
+        <v>17.35423409331792</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>11.66937079879852</v>
+        <v>6.681497955438687</v>
       </c>
       <c r="D20">
-        <v>13.4435773640093</v>
+        <v>11.52575063039879</v>
       </c>
       <c r="E20">
-        <v>10.05847762038565</v>
+        <v>9.101838516424356</v>
       </c>
       <c r="F20">
-        <v>91.77757681896728</v>
+        <v>60.72862952617925</v>
       </c>
       <c r="G20">
-        <v>1.784012871504172</v>
+        <v>3.725798144268106</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>67.43861217958252</v>
+        <v>48.30355567577605</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>5.108295776651974</v>
+        <v>7.985438019028745</v>
       </c>
       <c r="M20">
-        <v>60.18816517894184</v>
+        <v>39.0964816597421</v>
       </c>
       <c r="N20">
-        <v>17.45352752320968</v>
+        <v>17.40602700931673</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>12.92827755445964</v>
+        <v>6.96581907055482</v>
       </c>
       <c r="D21">
-        <v>15.23480105845216</v>
+        <v>11.59772001543234</v>
       </c>
       <c r="E21">
-        <v>10.77109483951295</v>
+        <v>9.232525455161319</v>
       </c>
       <c r="F21">
-        <v>102.9438811363834</v>
+        <v>61.99962784844334</v>
       </c>
       <c r="G21">
-        <v>1.702506081775579</v>
+        <v>3.714732547404036</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>75.73373366016455</v>
+        <v>49.04977625378495</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>5.144963081325982</v>
+        <v>7.978796035219307</v>
       </c>
       <c r="M21">
-        <v>66.13258726642024</v>
+        <v>40.25565226032531</v>
       </c>
       <c r="N21">
-        <v>18.00308940682436</v>
+        <v>17.5816398119703</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>14.00688110302871</v>
+        <v>7.145558198470958</v>
       </c>
       <c r="D22">
-        <v>16.80876839591395</v>
+        <v>11.64917809686824</v>
       </c>
       <c r="E22">
-        <v>11.36860902324657</v>
+        <v>9.31682510850422</v>
       </c>
       <c r="F22">
-        <v>112.5475514427515</v>
+        <v>62.84317963968283</v>
       </c>
       <c r="G22">
-        <v>1.628532927903088</v>
+        <v>3.707715307494948</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>82.88241076458192</v>
+        <v>49.55191978595474</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>5.181878850765236</v>
+        <v>7.974954090559898</v>
       </c>
       <c r="M22">
-        <v>70.94221509971943</v>
+        <v>41.00320231684741</v>
       </c>
       <c r="N22">
-        <v>18.33142247252085</v>
+        <v>17.69745293450005</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>13.38844350329465</v>
+        <v>7.050189511979153</v>
       </c>
       <c r="D23">
-        <v>15.90253838024302</v>
+        <v>11.62130779305694</v>
       </c>
       <c r="E23">
-        <v>11.02746386529012</v>
+        <v>9.27193808567435</v>
       </c>
       <c r="F23">
-        <v>107.0435402430405</v>
+        <v>62.39185632452382</v>
       </c>
       <c r="G23">
-        <v>1.671387784424596</v>
+        <v>3.71144107935823</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>78.78381071289984</v>
+        <v>49.28262776820157</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>5.160000345823336</v>
+        <v>7.976959058679564</v>
       </c>
       <c r="M23">
-        <v>68.21897482170492</v>
+        <v>40.60520992477829</v>
       </c>
       <c r="N23">
-        <v>18.1611998491116</v>
+        <v>17.63555570828705</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>11.65075374778032</v>
+        <v>6.676749443431048</v>
       </c>
       <c r="D24">
-        <v>13.41752609116144</v>
+        <v>11.52464859328398</v>
       </c>
       <c r="E24">
-        <v>10.04782242191051</v>
+        <v>9.099684543316371</v>
       </c>
       <c r="F24">
-        <v>91.61346552708204</v>
+        <v>60.70808991065589</v>
       </c>
       <c r="G24">
-        <v>1.785176966291829</v>
+        <v>3.72598267350392</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>67.31683850748945</v>
+        <v>48.29161021969197</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>5.107799104248635</v>
+        <v>7.98555502615263</v>
       </c>
       <c r="M24">
-        <v>60.09783889432676</v>
+        <v>39.07738259921561</v>
       </c>
       <c r="N24">
-        <v>17.44428544339106</v>
+        <v>17.40317640634704</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>10.14809667083285</v>
+        <v>6.248442736156909</v>
       </c>
       <c r="D25">
-        <v>11.36291142250694</v>
+        <v>11.43917389342796</v>
       </c>
       <c r="E25">
-        <v>9.179193866367742</v>
+        <v>8.909478471434321</v>
       </c>
       <c r="F25">
-        <v>78.52728093645813</v>
+        <v>58.95473055594679</v>
       </c>
       <c r="G25">
-        <v>1.875082399469603</v>
+        <v>3.742609095152095</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>57.62049147100852</v>
+        <v>47.287845395247</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>5.072175151509409</v>
+        <v>7.996980043431106</v>
       </c>
       <c r="M25">
-        <v>52.59746233271845</v>
+        <v>37.39399076326109</v>
       </c>
       <c r="N25">
-        <v>16.61816201544742</v>
+        <v>17.15794906581295</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_140/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_140/res_line/loading_percent.xlsx
@@ -424,25 +424,25 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>5.911987446456305</v>
+        <v>9.119816802688755</v>
       </c>
       <c r="D2">
-        <v>11.39208510656983</v>
+        <v>10.26155381983562</v>
       </c>
       <c r="E2">
-        <v>8.76604078345289</v>
+        <v>8.579474190337995</v>
       </c>
       <c r="F2">
-        <v>57.72565733924125</v>
+        <v>69.81278082028682</v>
       </c>
       <c r="G2">
-        <v>3.755683001120029</v>
+        <v>1.932008453986876</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>46.60782760093369</v>
+        <v>51.17967436614098</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,13 +451,13 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.007255930706178</v>
+        <v>5.053484912709997</v>
       </c>
       <c r="M2">
-        <v>36.13320484868541</v>
+        <v>47.24376076459546</v>
       </c>
       <c r="N2">
-        <v>16.98307495717732</v>
+        <v>15.99038605713194</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,25 +471,25 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>5.671382409986819</v>
+        <v>8.430450058523084</v>
       </c>
       <c r="D3">
-        <v>11.36985823385049</v>
+        <v>9.587310793018675</v>
       </c>
       <c r="E3">
-        <v>8.666929438712158</v>
+        <v>8.178418606253542</v>
       </c>
       <c r="F3">
-        <v>56.93511831928879</v>
+        <v>64.11478734916977</v>
       </c>
       <c r="G3">
-        <v>3.765073379102368</v>
+        <v>1.968128894466617</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>46.18505825166956</v>
+        <v>47.15242351027732</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,13 +498,13 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.015388637497136</v>
+        <v>5.044045258007845</v>
       </c>
       <c r="M3">
-        <v>35.27062507874101</v>
+        <v>43.56117495382099</v>
       </c>
       <c r="N3">
-        <v>16.86861584555926</v>
+        <v>15.55801492653869</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,25 +518,25 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>5.517687811008257</v>
+        <v>8.003689632596537</v>
       </c>
       <c r="D4">
-        <v>11.36091050373927</v>
+        <v>9.197608715658614</v>
       </c>
       <c r="E4">
-        <v>8.605210685346936</v>
+        <v>7.931728081362767</v>
       </c>
       <c r="F4">
-        <v>56.471822062941</v>
+        <v>60.8311327116613</v>
       </c>
       <c r="G4">
-        <v>3.771104149998658</v>
+        <v>1.989690040493732</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>45.94459211584066</v>
+        <v>44.89178221976864</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,13 +545,13 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.020960620617643</v>
+        <v>5.039609913382094</v>
       </c>
       <c r="M4">
-        <v>34.73886209376798</v>
+        <v>41.24477420638279</v>
       </c>
       <c r="N4">
-        <v>16.80050501527966</v>
+        <v>15.29040934276988</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,25 +565,25 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>5.453600773689383</v>
+        <v>7.828163454674613</v>
       </c>
       <c r="D5">
-        <v>11.35843347574352</v>
+        <v>9.043922642211164</v>
       </c>
       <c r="E5">
-        <v>8.579854244623565</v>
+        <v>7.830800959705411</v>
       </c>
       <c r="F5">
-        <v>56.2887479125942</v>
+        <v>59.5096933880522</v>
       </c>
       <c r="G5">
-        <v>3.77362889143155</v>
+        <v>1.998384355355796</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>45.8514480767581</v>
+        <v>43.98215662507418</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,13 +592,13 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.023377018532434</v>
+        <v>5.038121972340396</v>
       </c>
       <c r="M5">
-        <v>34.5219250703665</v>
+        <v>40.28392654299498</v>
       </c>
       <c r="N5">
-        <v>16.77331951280883</v>
+        <v>15.18100244603834</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,25 +612,25 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>5.442872689386066</v>
+        <v>7.79890203645118</v>
       </c>
       <c r="D6">
-        <v>11.35809239622755</v>
+        <v>9.018689480756001</v>
       </c>
       <c r="E6">
-        <v>8.57563175696805</v>
+        <v>7.81401167373564</v>
       </c>
       <c r="F6">
-        <v>56.25869876431394</v>
+        <v>59.29070801864925</v>
       </c>
       <c r="G6">
-        <v>3.774052193440983</v>
+        <v>1.999824022771247</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>45.83627534517071</v>
+        <v>43.83172150992557</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,13 +639,13 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.023787072657672</v>
+        <v>5.037893664577527</v>
       </c>
       <c r="M6">
-        <v>34.48589728821162</v>
+        <v>40.1232853620997</v>
       </c>
       <c r="N6">
-        <v>16.76884054273886</v>
+        <v>15.16281920266799</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>5.516829340201617</v>
+        <v>8.00132980095845</v>
       </c>
       <c r="D7">
-        <v>11.36087238088512</v>
+        <v>9.195516392207349</v>
       </c>
       <c r="E7">
-        <v>8.60486953622326</v>
+        <v>7.930368856483123</v>
       </c>
       <c r="F7">
-        <v>56.46932968192272</v>
+        <v>60.81327931542083</v>
       </c>
       <c r="G7">
-        <v>3.771137926974677</v>
+        <v>1.989807596162861</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>45.94331626839198</v>
+        <v>44.87947210177425</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,13 +686,13 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.020992618378603</v>
+        <v>5.039588577703161</v>
       </c>
       <c r="M7">
-        <v>34.735936973183</v>
+        <v>41.23188766661148</v>
       </c>
       <c r="N7">
-        <v>16.80013604053955</v>
+        <v>15.28893504888584</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.830288691768554</v>
+        <v>8.882324129030254</v>
       </c>
       <c r="D8">
-        <v>11.3834387118509</v>
+        <v>10.02332611060558</v>
       </c>
       <c r="E8">
-        <v>8.732053483420552</v>
+        <v>8.441068142238862</v>
       </c>
       <c r="F8">
-        <v>57.44859759114876</v>
+        <v>67.83532100918902</v>
       </c>
       <c r="G8">
-        <v>3.758866101753325</v>
+        <v>1.944634740889948</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>46.45811733660151</v>
+        <v>49.72013981996242</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,13 +733,13 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.009940213373682</v>
+        <v>5.049931489928708</v>
       </c>
       <c r="M8">
-        <v>35.83640581397105</v>
+        <v>45.98338659304129</v>
       </c>
       <c r="N8">
-        <v>16.94317487982781</v>
+        <v>15.84185657790858</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,25 +753,25 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6.396059729629362</v>
+        <v>10.63395442342143</v>
       </c>
       <c r="D9">
-        <v>11.46548131503017</v>
+        <v>12.01640024104238</v>
       </c>
       <c r="E9">
-        <v>8.974103717460993</v>
+        <v>9.461615303945308</v>
       </c>
       <c r="F9">
-        <v>59.53625569461074</v>
+        <v>82.71934537540689</v>
       </c>
       <c r="G9">
-        <v>3.736880718529984</v>
+        <v>1.846890433977181</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>47.61697878009698</v>
+        <v>60.72359086479354</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,13 +780,13 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>7.992842811848853</v>
+        <v>5.082694331721088</v>
       </c>
       <c r="M9">
-        <v>37.96500171661049</v>
+        <v>55.06636768015156</v>
       </c>
       <c r="N9">
-        <v>17.23973913248815</v>
+        <v>16.90039496291338</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,25 +800,25 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6.780147294445873</v>
+        <v>12.07061520151546</v>
       </c>
       <c r="D10">
-        <v>11.54939348989755</v>
+        <v>14.00829921701595</v>
       </c>
       <c r="E10">
-        <v>9.14680268116645</v>
+        <v>10.28733588811697</v>
       </c>
       <c r="F10">
-        <v>61.16053136378863</v>
+        <v>95.32334230045646</v>
       </c>
       <c r="G10">
-        <v>3.721962763485435</v>
+        <v>1.7586279665644</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>48.5556157812849</v>
+        <v>70.07064262315372</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,13 +827,13 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>7.983053025115115</v>
+        <v>5.119317547863825</v>
       </c>
       <c r="M10">
-        <v>39.49525087564956</v>
+        <v>62.11837639990392</v>
       </c>
       <c r="N10">
-        <v>17.46586996553227</v>
+        <v>17.64542594697362</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,25 +847,25 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>6.947748225615999</v>
+        <v>12.83684817934459</v>
       </c>
       <c r="D11">
-        <v>11.59279928626071</v>
+        <v>15.10288514197928</v>
       </c>
       <c r="E11">
-        <v>9.224120770289465</v>
+        <v>10.7198913764696</v>
       </c>
       <c r="F11">
-        <v>61.91649397761852</v>
+        <v>102.1297509828748</v>
       </c>
       <c r="G11">
-        <v>3.715437003736395</v>
+        <v>1.708606954016878</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>49.00056959116281</v>
+        <v>75.1283202890564</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,13 +874,13 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>7.979197309628323</v>
+        <v>5.142087323430056</v>
       </c>
       <c r="M11">
-        <v>40.1811013516983</v>
+        <v>65.71225842412906</v>
       </c>
       <c r="N11">
-        <v>17.57019663390583</v>
+        <v>17.96870831503449</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,25 +894,25 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>7.010172766985795</v>
+        <v>13.16261318062699</v>
       </c>
       <c r="D12">
-        <v>11.60999446280219</v>
+        <v>15.57407195831838</v>
       </c>
       <c r="E12">
-        <v>9.253209538016552</v>
+        <v>10.9019266140617</v>
       </c>
       <c r="F12">
-        <v>62.20498841023464</v>
+        <v>105.0313898041584</v>
       </c>
       <c r="G12">
-        <v>3.713002732781433</v>
+        <v>1.686744385907701</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>49.1715504741078</v>
+        <v>77.28650637886571</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,13 +921,13 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>7.977822865460185</v>
+        <v>5.152499794533004</v>
       </c>
       <c r="M12">
-        <v>40.43911242167114</v>
+        <v>67.20122522281629</v>
       </c>
       <c r="N12">
-        <v>17.6098836085485</v>
+        <v>18.08678708654314</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>6.996775130422186</v>
+        <v>13.09022126949607</v>
       </c>
       <c r="D13">
-        <v>11.60625736925742</v>
+        <v>15.46908777443027</v>
       </c>
       <c r="E13">
-        <v>9.246953370197446</v>
+        <v>10.8615714420089</v>
       </c>
       <c r="F13">
-        <v>62.14276049937316</v>
+        <v>104.3864135923761</v>
       </c>
       <c r="G13">
-        <v>3.713525364915007</v>
+        <v>1.691632594507523</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>49.13461768479871</v>
+        <v>76.80668077819801</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>7.978115073230311</v>
+        <v>5.150145475042806</v>
       </c>
       <c r="M13">
-        <v>40.38362443218932</v>
+        <v>66.87244436583659</v>
       </c>
       <c r="N13">
-        <v>17.60132873232378</v>
+        <v>18.06162180323531</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,25 +988,25 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>6.952904909790962</v>
+        <v>12.86272038130038</v>
       </c>
       <c r="D14">
-        <v>11.59419871734363</v>
+        <v>15.14018739896416</v>
       </c>
       <c r="E14">
-        <v>9.226517788952924</v>
+        <v>10.73438964548219</v>
       </c>
       <c r="F14">
-        <v>61.94018523874541</v>
+        <v>102.3601031295887</v>
       </c>
       <c r="G14">
-        <v>3.715235998703368</v>
+        <v>1.706883364985367</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>49.01458702919322</v>
+        <v>75.29960787048861</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,13 +1015,13 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>7.979082518938927</v>
+        <v>5.142897487729436</v>
       </c>
       <c r="M14">
-        <v>40.20236350807328</v>
+        <v>65.8313910754934</v>
       </c>
       <c r="N14">
-        <v>17.5734582492869</v>
+        <v>17.9785334995278</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,25 +1035,25 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>6.925896921771622</v>
+        <v>12.72903797016278</v>
       </c>
       <c r="D15">
-        <v>11.58691135093864</v>
+        <v>14.94767539314705</v>
       </c>
       <c r="E15">
-        <v>9.213975350622432</v>
+        <v>10.65940039964974</v>
       </c>
       <c r="F15">
-        <v>61.81638543501438</v>
+        <v>101.1701254720864</v>
       </c>
       <c r="G15">
-        <v>3.716288598800774</v>
+        <v>1.715765240972874</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>48.94138565098317</v>
+        <v>74.41483475016607</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,13 +1062,13 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>7.979686249606043</v>
+        <v>5.138741519564832</v>
       </c>
       <c r="M15">
-        <v>40.09110734906683</v>
+        <v>65.21422683003813</v>
       </c>
       <c r="N15">
-        <v>17.55640944891586</v>
+        <v>17.92696062790552</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,25 +1082,25 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>6.769049225163744</v>
+        <v>12.02397215427573</v>
       </c>
       <c r="D16">
-        <v>11.54666265654571</v>
+        <v>13.9423394202616</v>
       </c>
       <c r="E16">
-        <v>9.141723781364821</v>
+        <v>10.26081152467053</v>
       </c>
       <c r="F16">
-        <v>61.1114515407096</v>
+        <v>94.91036428709776</v>
       </c>
       <c r="G16">
-        <v>3.722394430903116</v>
+        <v>1.761607777546724</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>48.52689033974802</v>
+        <v>69.7639898692462</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,13 +1109,13 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>7.983317005517647</v>
+        <v>5.118005106163888</v>
       </c>
       <c r="M16">
-        <v>39.45020231615658</v>
+        <v>61.89564527338788</v>
       </c>
       <c r="N16">
-        <v>17.45907884317127</v>
+        <v>17.6238605087705</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,25 +1129,25 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>6.670989935895243</v>
+        <v>11.6282506909941</v>
       </c>
       <c r="D17">
-        <v>11.52331638382888</v>
+        <v>13.38605528984733</v>
       </c>
       <c r="E17">
-        <v>9.09707326307614</v>
+        <v>10.03493894761107</v>
       </c>
       <c r="F17">
-        <v>60.68320838529145</v>
+        <v>91.41515081240171</v>
       </c>
       <c r="G17">
-        <v>3.726206480579688</v>
+        <v>1.786582415808903</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>48.27714478079798</v>
+        <v>67.16969079618207</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,13 +1156,13 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>7.985697219143288</v>
+        <v>5.107200502530644</v>
       </c>
       <c r="M17">
-        <v>39.05422920447746</v>
+        <v>59.98856909945744</v>
       </c>
       <c r="N17">
-        <v>17.3997226168695</v>
+        <v>17.43307591504762</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,25 +1176,25 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>6.613919257178713</v>
+        <v>11.40962003872007</v>
       </c>
       <c r="D18">
-        <v>11.51038059262258</v>
+        <v>13.08135007496096</v>
       </c>
       <c r="E18">
-        <v>9.071275057871235</v>
+        <v>9.909536058604033</v>
       </c>
       <c r="F18">
-        <v>60.43851478506355</v>
+        <v>89.49150632516618</v>
       </c>
       <c r="G18">
-        <v>3.72842362408306</v>
+        <v>1.80014409375452</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>48.13519469472594</v>
+        <v>65.74268081153053</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,13 +1203,13 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>7.987122533469757</v>
+        <v>5.101484292681039</v>
       </c>
       <c r="M18">
-        <v>38.82552206185348</v>
+        <v>58.92190446098328</v>
       </c>
       <c r="N18">
-        <v>17.36572151819152</v>
+        <v>17.32204396956563</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,25 +1223,25 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>6.594481720180075</v>
+        <v>11.33684408591073</v>
       </c>
       <c r="D19">
-        <v>11.50608512344093</v>
+        <v>12.98035177593133</v>
       </c>
       <c r="E19">
-        <v>9.062520580340456</v>
+        <v>9.867702515572693</v>
       </c>
       <c r="F19">
-        <v>60.35595098090688</v>
+        <v>88.85249023691131</v>
       </c>
       <c r="G19">
-        <v>3.729178544892463</v>
+        <v>1.80462086441888</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>48.08742713841973</v>
+        <v>65.26876983212134</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,13 +1250,13 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>7.987614795889887</v>
+        <v>5.099621760849571</v>
       </c>
       <c r="M19">
-        <v>38.74792920622686</v>
+        <v>58.56483638030949</v>
       </c>
       <c r="N19">
-        <v>17.35423409331792</v>
+        <v>17.28425827626847</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,25 +1270,25 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>6.681497955438687</v>
+        <v>11.66937079879863</v>
       </c>
       <c r="D20">
-        <v>11.52575063039879</v>
+        <v>13.44357736400946</v>
       </c>
       <c r="E20">
-        <v>9.101838516424356</v>
+        <v>10.05847762038569</v>
       </c>
       <c r="F20">
-        <v>60.72862952617925</v>
+        <v>91.77757681896792</v>
       </c>
       <c r="G20">
-        <v>3.725798144268106</v>
+        <v>1.784012871504141</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>48.30355567577605</v>
+        <v>67.43861217958295</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,13 +1297,13 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>7.985438019028745</v>
+        <v>5.108295776651926</v>
       </c>
       <c r="M20">
-        <v>39.0964816597421</v>
+        <v>60.1881651789421</v>
       </c>
       <c r="N20">
-        <v>17.40602700931673</v>
+        <v>17.45352752320964</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,25 +1317,25 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>6.96581907055482</v>
+        <v>12.92827755445966</v>
       </c>
       <c r="D21">
-        <v>11.59772001543234</v>
+        <v>15.23480105845208</v>
       </c>
       <c r="E21">
-        <v>9.232525455161319</v>
+        <v>10.77109483951297</v>
       </c>
       <c r="F21">
-        <v>61.99962784844334</v>
+        <v>102.943881136383</v>
       </c>
       <c r="G21">
-        <v>3.714732547404036</v>
+        <v>1.702506081775522</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>49.04977625378495</v>
+        <v>75.73373366016425</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>7.978796035219307</v>
+        <v>5.144963081326023</v>
       </c>
       <c r="M21">
-        <v>40.25565226032531</v>
+        <v>66.13258726642002</v>
       </c>
       <c r="N21">
-        <v>17.5816398119703</v>
+        <v>18.00308940682436</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,25 +1364,25 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>7.145558198470958</v>
+        <v>14.00688110302894</v>
       </c>
       <c r="D22">
-        <v>11.64917809686824</v>
+        <v>16.80876839591421</v>
       </c>
       <c r="E22">
-        <v>9.31682510850422</v>
+        <v>11.36860902324669</v>
       </c>
       <c r="F22">
-        <v>62.84317963968283</v>
+        <v>112.5475514427525</v>
       </c>
       <c r="G22">
-        <v>3.707715307494948</v>
+        <v>1.628532927903139</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>49.55191978595474</v>
+        <v>82.88241076458272</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,13 +1391,13 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>7.974954090559898</v>
+        <v>5.181878850765268</v>
       </c>
       <c r="M22">
-        <v>41.00320231684741</v>
+        <v>70.94221509971985</v>
       </c>
       <c r="N22">
-        <v>17.69745293450005</v>
+        <v>18.33142247252083</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,25 +1411,25 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>7.050189511979153</v>
+        <v>13.38844350329459</v>
       </c>
       <c r="D23">
-        <v>11.62130779305694</v>
+        <v>15.90253838024275</v>
       </c>
       <c r="E23">
-        <v>9.27193808567435</v>
+        <v>11.02746386529003</v>
       </c>
       <c r="F23">
-        <v>62.39185632452382</v>
+        <v>107.0435402430395</v>
       </c>
       <c r="G23">
-        <v>3.71144107935823</v>
+        <v>1.671387784424614</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>49.28262776820157</v>
+        <v>78.7838107128991</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>7.976959058679564</v>
+        <v>5.160000345823248</v>
       </c>
       <c r="M23">
-        <v>40.60520992477829</v>
+        <v>68.21897482170452</v>
       </c>
       <c r="N23">
-        <v>17.63555570828705</v>
+        <v>18.16119984911163</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,25 +1458,25 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>6.676749443431048</v>
+        <v>11.65075374778022</v>
       </c>
       <c r="D24">
-        <v>11.52464859328398</v>
+        <v>13.41752609116143</v>
       </c>
       <c r="E24">
-        <v>9.099684543316371</v>
+        <v>10.04782242191034</v>
       </c>
       <c r="F24">
-        <v>60.70808991065589</v>
+        <v>91.61346552708135</v>
       </c>
       <c r="G24">
-        <v>3.72598267350392</v>
+        <v>1.785176966291567</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>48.29161021969197</v>
+        <v>67.31683850748897</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,13 +1485,13 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>7.98555502615263</v>
+        <v>5.107799104248572</v>
       </c>
       <c r="M24">
-        <v>39.07738259921561</v>
+        <v>60.09783889432651</v>
       </c>
       <c r="N24">
-        <v>17.40317640634704</v>
+        <v>17.44428544339108</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,25 +1505,25 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>6.248442736156909</v>
+        <v>10.1480966708327</v>
       </c>
       <c r="D25">
-        <v>11.43917389342796</v>
+        <v>11.36291142250683</v>
       </c>
       <c r="E25">
-        <v>8.909478471434321</v>
+        <v>9.179193866367662</v>
       </c>
       <c r="F25">
-        <v>58.95473055594679</v>
+        <v>78.52728093645756</v>
       </c>
       <c r="G25">
-        <v>3.742609095152095</v>
+        <v>1.875082399469737</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>47.287845395247</v>
+        <v>57.62049147100811</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,13 +1532,13 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.996980043431106</v>
+        <v>5.072175151509382</v>
       </c>
       <c r="M25">
-        <v>37.39399076326109</v>
+        <v>52.59746233271817</v>
       </c>
       <c r="N25">
-        <v>17.15794906581295</v>
+        <v>16.61816201544746</v>
       </c>
       <c r="O25">
         <v>0</v>
